--- a/lupus/results.xlsx
+++ b/lupus/results.xlsx
@@ -19,10 +19,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of timesteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test success rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DQN Experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dueling DDQN using same hyperparameters as in SB3 DQN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dueling DDQN with prioritized experience replay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDQN (no prioritized experience replay or dueling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla DQN (no prioritized experience replay or dueling or DDQN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla DQN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272m/300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best DQN with HER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best DQN with different seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best DQN with larger/smaller buffer size - 2000000/500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best DQN with larger/smaller train_frequency 10/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best DQN with different target_update_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor-Critic Experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2C Copying hyperparameters from SB3 A2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACKTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5m/300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test between 1.5m to 1.6m using 10k checkpoints. Maybe lower learning rate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDPG (has box action space e.g. self.observation_space = spaces.Box(low=0, high=1, shape=(len(self.df.columns)-1,)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDPG + HER if DDPG is promising</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -88,8 +178,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +208,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>84.114</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="1"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
